--- a/Лаба 5/Files/оценки.xlsx
+++ b/Лаба 5/Files/оценки.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Нормальное распределение" sheetId="1" r:id="rId1"/>
     <sheet name="Логистический закон" sheetId="2" r:id="rId2"/>
     <sheet name="Распределение Коши" sheetId="3" r:id="rId3"/>
+    <sheet name="Нормальное по выборке Коши" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>k</t>
   </si>
@@ -492,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -809,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -907,4 +908,112 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.91488100000000006</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.69608348281963595</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2-F2</f>
+        <v>0.21879751718036411</v>
+      </c>
+      <c r="H2" s="1">
+        <v>17.970600000000001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13.0962960333643</v>
+      </c>
+      <c r="J2" s="6">
+        <f>H2-I2</f>
+        <v>4.8743039666357006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>873.69954929117205</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1503.1093722833</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>